--- a/Data/Transitions/19431967Translation.xlsx
+++ b/Data/Transitions/19431967Translation.xlsx
@@ -73,7 +73,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -94,7 +94,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -103,7 +103,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -157,7 +157,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
   </si>
   <si>
     <t>{81.0: 0.9862542955326461}</t>
@@ -187,10 +187,10 @@
     <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728}</t>
   </si>
   <si>
-    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{91.0: 0.96351849239523, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 92.0: 0.04376513415565631, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9562348658443437, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -202,7 +202,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9760645363772565}</t>
+    <t>{97.0: 0.9760863386099149}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -226,10 +226,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -250,13 +250,13 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9987441357199506, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9987441357199506, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.03131128830016397, 152.0: 0.00036603571619543685}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -322,7 +322,7 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.2102963895697321}</t>
@@ -343,16 +343,16 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
   </si>
   <si>
     <t>{202.0: 0.29814984568413466, 307.0: 0.9834669117201308}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -412,7 +412,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -451,7 +451,7 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -463,7 +463,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -472,10 +472,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -496,7 +496,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -520,7 +520,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -529,7 +529,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
@@ -577,7 +577,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946, 142.0: 1.797534470597053e-05}</t>
@@ -619,7 +619,7 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
+    <t>{301.0: 1.0, 145.0: 0.00038146212501716855, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.195908956541287e-05, 152.0: 1.3980433740563627e-07}</t>
   </si>
   <si>
     <t>{303.0: 0.9475683890577508, 840.0: 0.10136869118905047}</t>
@@ -643,7 +643,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -664,7 +664,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -673,7 +673,7 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937}</t>
+    <t>{400.0: 0.9383618695048589}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
@@ -730,7 +730,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.9970319608416004, 202.0: 0.00025952612563522384, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 477.0: 1.2773105550742652e-05, 207.0: 6.229748827025319e-06, 680.0: 4.191588781850509e-08}</t>
@@ -745,10 +745,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -835,13 +835,13 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -901,7 +901,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -913,10 +913,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -976,7 +976,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -994,7 +994,7 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1003,16 +1003,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1045,7 +1045,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.46377929329690437}</t>
@@ -1099,7 +1099,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
+    <t>{627.0: 0.432346990389479}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -1129,13 +1129,13 @@
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9762594508880611, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 477.0: 4.470586942759928e-05, 202.0: 3.445934204132267e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
   </si>
   <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.004345719985261719, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007045575370934223}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1183,10 +1183,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1240,13 +1240,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1345,7 +1345,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1357,7 +1357,7 @@
     <t>{788.0: 0.9085349787093937}</t>
   </si>
   <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.000609927021410275}</t>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.0003762037742763266, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.000609927021410275}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1408,7 +1408,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1447,7 +1447,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{887.0: 0.9493218332843075, 619.0: 0.0006435006435006435}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1501,10 +1501,10 @@
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1573,7 +1573,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1582,7 +1582,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1627,13 +1627,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3771760347955267}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27784056424541764}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4333451572549258}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22167144178601855}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493104, 886.0: 0.006416426050689767}</t>
@@ -1798,7 +1798,7 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863139, 681.0: 0.007171753079185206, 768.0: 0.0065680205345009825}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919332, 768.0: 0.0065680205345009825}</t>
   </si>
   <si>
     <t>{179.0: 0.8967913904273564, 180.0: 0.10320860957264365}</t>
@@ -1861,7 +1861,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1897,7 +1897,7 @@
     <t>{271.0: 0.9988083631242551, 237.0: 0.001191636875744773}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
+    <t>{275.0: 0.9445925803714909, 921.0: 0.009442148944137254, 77.0: 0.045965270684371805}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -2281,7 +2281,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668323, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611937, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2395,13 +2395,13 @@
     <t>{934.0: 0.9935019726154563, 5.0: 0.006498027384543977}</t>
   </si>
   <si>
-    <t>{940.0: 0.98649977479185, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.98649977479185, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.16133961771190689, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.770064142065748, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
